--- a/stock_historical_data/1d/WAAREERTL.BO.xlsx
+++ b/stock_historical_data/1d/WAAREERTL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,264 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1157</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1157</v>
+      </c>
+      <c r="D12" t="n">
+        <v>951</v>
+      </c>
+      <c r="E12" t="n">
+        <v>951</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1790864</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B13" t="n">
+        <v>930</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D13" t="n">
+        <v>877.0499877929688</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2032490</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1158.300048828125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1297.949951171875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1126.650024414062</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1145.949951171875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1120125</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1076.75</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1335837</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1044.699951171875</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1068</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1001.049987792969</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1044.349975585938</v>
+      </c>
+      <c r="F16" t="n">
+        <v>609571</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/WAAREERTL.BO.xlsx
+++ b/stock_historical_data/1d/WAAREERTL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1154,7 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1205,7 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1256,7 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1307,7 +1315,264 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1068.894878931478</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1116.845303406909</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1043.920699517191</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1065.098754882812</v>
+      </c>
+      <c r="F17" t="n">
+        <v>525672</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1086.876332663976</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1098.863939274241</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1003.962053609647</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1014.900756835938</v>
+      </c>
+      <c r="F18" t="n">
+        <v>453721</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1038.925939019813</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1038.925939019813</v>
+      </c>
+      <c r="D19" t="n">
+        <v>973.9930678310745</v>
+      </c>
+      <c r="E19" t="n">
+        <v>989.4271240234375</v>
+      </c>
+      <c r="F19" t="n">
+        <v>340844</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B20" t="n">
+        <v>989.4270842316045</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1033.881064054734</v>
+      </c>
+      <c r="D20" t="n">
+        <v>959.0085205267235</v>
+      </c>
+      <c r="E20" t="n">
+        <v>967.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>312426</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B21" t="n">
+        <v>996.9000244140625</v>
+      </c>
+      <c r="C21" t="n">
+        <v>996.9000244140625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>905</v>
+      </c>
+      <c r="E21" t="n">
+        <v>933.6500244140625</v>
+      </c>
+      <c r="F21" t="n">
+        <v>380353</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/WAAREERTL.BO.xlsx
+++ b/stock_historical_data/1d/WAAREERTL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,7 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1419,7 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1470,7 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1521,7 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1572,7 +1580,264 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B22" t="n">
+        <v>928</v>
+      </c>
+      <c r="C22" t="n">
+        <v>928</v>
+      </c>
+      <c r="D22" t="n">
+        <v>841.2999877929688</v>
+      </c>
+      <c r="E22" t="n">
+        <v>888.8499755859375</v>
+      </c>
+      <c r="F22" t="n">
+        <v>496606</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B23" t="n">
+        <v>890.0499877929688</v>
+      </c>
+      <c r="C23" t="n">
+        <v>924.9000244140625</v>
+      </c>
+      <c r="D23" t="n">
+        <v>830</v>
+      </c>
+      <c r="E23" t="n">
+        <v>898.0499877929688</v>
+      </c>
+      <c r="F23" t="n">
+        <v>489961</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B24" t="n">
+        <v>905</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1040.25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>898.0499877929688</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1014.799987792969</v>
+      </c>
+      <c r="F24" t="n">
+        <v>608535</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1028.900024414062</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D25" t="n">
+        <v>981.5999755859375</v>
+      </c>
+      <c r="E25" t="n">
+        <v>991</v>
+      </c>
+      <c r="F25" t="n">
+        <v>340154</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1039.900024414062</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1039.900024414062</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1003.200012207031</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1013.650024414062</v>
+      </c>
+      <c r="F26" t="n">
+        <v>313332</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
